--- a/output/below_50/tRNA-Leu-CAA-3-1.xlsx
+++ b/output/below_50/tRNA-Leu-CAA-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>chr6</t>
   </si>
@@ -276,246 +276,6 @@
   </si>
   <si>
     <t>71</t>
-  </si>
-  <si>
-    <t>27570512</t>
-  </si>
-  <si>
-    <t>27570535</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27570532</t>
-  </si>
-  <si>
-    <t>GACAAAGGAGGAAAAGACCT</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 31, Doench 2016: 89%, Moreno-Mateos: 50%</t>
-  </si>
-  <si>
-    <t>2.13635E+11</t>
-  </si>
-  <si>
-    <t>27570650</t>
-  </si>
-  <si>
-    <t>27570673</t>
-  </si>
-  <si>
-    <t>27570670</t>
-  </si>
-  <si>
-    <t>TAATTCAGAAATGAAACAAT</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 36, Doench 2016: 23%, Moreno-Mateos: 23%</t>
-  </si>
-  <si>
-    <t>2.04302E+11</t>
-  </si>
-  <si>
-    <t>27570651</t>
-  </si>
-  <si>
-    <t>27570674</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>27570671</t>
-  </si>
-  <si>
-    <t>AATTCAGAAATGAAACAATA</t>
-  </si>
-  <si>
-    <t>33% (37)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 24, Doench 2016: 46%, Moreno-Mateos: 33%</t>
-  </si>
-  <si>
-    <t>2.75561E+11</t>
-  </si>
-  <si>
-    <t>27570658</t>
-  </si>
-  <si>
-    <t>27570681</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>27570678</t>
-  </si>
-  <si>
-    <t>AAATGAAACAATAGGGAAAG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>61% (50)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 59%, Moreno-Mateos: 61%</t>
-  </si>
-  <si>
-    <t>1.67309E+11</t>
-  </si>
-  <si>
-    <t>27570849</t>
-  </si>
-  <si>
-    <t>27570872</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27570852</t>
-  </si>
-  <si>
-    <t>AAAGTATTCACAGTGTATTT</t>
-  </si>
-  <si>
-    <t>3% (21)</t>
-  </si>
-  <si>
-    <t>2% (10)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 3%, Moreno-Mateos: 2%</t>
-  </si>
-  <si>
-    <t>3.22904E+11</t>
-  </si>
-  <si>
-    <t>27570921</t>
-  </si>
-  <si>
-    <t>27570944</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27570941</t>
-  </si>
-  <si>
-    <t>AGAATGGTTGGAAAAGATGA</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 72%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>1.84767E+11</t>
-  </si>
-  <si>
-    <t>27570924</t>
-  </si>
-  <si>
-    <t>27570947</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>ATGGTTGGAAAAGATGAAGG</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>86% (65)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 81%, Moreno-Mateos: 86%</t>
-  </si>
-  <si>
-    <t>3.95036E+11</t>
-  </si>
-  <si>
-    <t>27570931</t>
-  </si>
-  <si>
-    <t>27570954</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>27570951</t>
-  </si>
-  <si>
-    <t>GAAAAGATGAAGGTGGAGAA</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 17, Doench 2016: 46%, Moreno-Mateos: 59%</t>
-  </si>
-  <si>
-    <t>3.36808E+11</t>
   </si>
 </sst>
 </file>
@@ -560,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1038,478 +798,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>105</v>
-      </c>
-      <c r="R10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>105</v>
-      </c>
-      <c r="R11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" t="s">
-        <v>126</v>
-      </c>
-      <c r="S12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>105</v>
-      </c>
-      <c r="R13" t="s">
-        <v>136</v>
-      </c>
-      <c r="S13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" t="s">
-        <v>147</v>
-      </c>
-      <c r="S14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15" t="s">
-        <v>154</v>
-      </c>
-      <c r="P15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" t="s">
-        <v>156</v>
-      </c>
-      <c r="S15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" t="s">
-        <v>163</v>
-      </c>
-      <c r="P16" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R16" t="s">
-        <v>166</v>
-      </c>
-      <c r="S16" t="s">
-        <v>167</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
